--- a/cbrunner/Parameters/Parameters_Economics.xlsx
+++ b/cbrunner/Parameters/Parameters_Economics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328277C6-A168-4D55-9F75-74217A89D230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6A262D-739C-491A-AA85-711F37A2C231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cbrunner/Parameters/Parameters_Economics.xlsx
+++ b/cbrunner/Parameters/Parameters_Economics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6A262D-739C-491A-AA85-711F37A2C231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24238C-D27C-4155-A925-CE8342654559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Convert 1 m3 DM to board feet (http://www.fao.org/3/ca7952en/CA7952EN.pdf, pg 9)</t>
+  </si>
+  <si>
+    <t>GJ per ODT</t>
+  </si>
+  <si>
+    <t>MWh per GJ</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,12 +595,20 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.27777800000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>

--- a/cbrunner/Parameters/Parameters_Economics.xlsx
+++ b/cbrunner/Parameters/Parameters_Economics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24238C-D27C-4155-A925-CE8342654559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4027DAE-4E29-4ED7-ACED-D71F3871C755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>

--- a/cbrunner/Parameters/Parameters_Economics.xlsx
+++ b/cbrunner/Parameters/Parameters_Economics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4027DAE-4E29-4ED7-ACED-D71F3871C755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CD41E-40B9-448A-B621-D54D2FAE756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -46,49 +46,10 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
     <t>Discount rate</t>
   </si>
   <si>
-    <t>Convert MgC/ha to sq ft/ha</t>
-  </si>
-  <si>
-    <t>wood_C_to_DM</t>
-  </si>
-  <si>
-    <t>wood_m3_to_bd_ft</t>
-  </si>
-  <si>
-    <t>wood_DM_to_m3</t>
-  </si>
-  <si>
-    <t>Convert wood carbon content to dry mass (Mg DM per Mg C-1)</t>
-  </si>
-  <si>
-    <t>Convert wood dry mass to volume (m3 per Mg DM), assume constant wood density of 0.4 Mg DM m-3</t>
-  </si>
-  <si>
-    <t>Thickness: 3/8" = 0.009525 m; Area = 1 sq foot = 0.092903 m3. 1000 sq ft = 1.13 m3</t>
-  </si>
-  <si>
-    <t>sq_ft_plywood_per_m3</t>
-  </si>
-  <si>
-    <t>sq_ft_osb_per_m3</t>
-  </si>
-  <si>
-    <t>sq_ft_mdf_per_m3</t>
-  </si>
-  <si>
-    <t>Convert 1 m3 DM to board feet (http://www.fao.org/3/ca7952en/CA7952EN.pdf, pg 9)</t>
-  </si>
-  <si>
-    <t>GJ per ODT</t>
-  </si>
-  <si>
-    <t>MWh per GJ</t>
+    <t>Discount Rate</t>
   </si>
 </sst>
 </file>
@@ -485,7 +446,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,104 +472,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>0.03</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <f>1/0.5</f>
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <f>1/0.4</f>
-        <v>2.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>453</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <f>1000/1.13</f>
-        <v>884.95575221238948</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <f>1000/1.13</f>
-        <v>884.95575221238948</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <f>1000/1.13</f>
-        <v>884.95575221238948</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>17.5</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0.27777800000000002</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>

--- a/cbrunner/Parameters/Parameters_Economics.xlsx
+++ b/cbrunner/Parameters/Parameters_Economics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CD41E-40B9-448A-B621-D54D2FAE756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EA402-735E-4DCF-92E1-6ECB554D6F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Best Estimate</t>
   </si>
 </sst>
 </file>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +163,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,26 +198,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,26 +233,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,12 +412,13 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
@@ -461,24 +428,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>0.03</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
